--- a/data/trans_orig/P05A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>899914</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>876455</v>
+        <v>880585</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>917235</v>
+        <v>919523</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8778887628928155</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8550034621995377</v>
+        <v>0.8590324058037518</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8947861148771492</v>
+        <v>0.8970182068651641</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1139</v>
@@ -765,19 +765,19 @@
         <v>1158685</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1132830</v>
+        <v>1134662</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1179902</v>
+        <v>1180962</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8910491493906707</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8711662231552814</v>
+        <v>0.8725754675859031</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9073658023153248</v>
+        <v>0.9081809100894451</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2044</v>
@@ -786,19 +786,19 @@
         <v>2058598</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2026229</v>
+        <v>2028445</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2089026</v>
+        <v>2090454</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8852478745777167</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8713284371144815</v>
+        <v>0.8722812515890004</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8983325942819079</v>
+        <v>0.8989468772376477</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>105019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88173</v>
+        <v>86269</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>125355</v>
+        <v>124893</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1024489050194575</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08601498046977138</v>
+        <v>0.08415744837112235</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1222870541401702</v>
+        <v>0.1218357681666091</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>111</v>
@@ -836,19 +836,19 @@
         <v>115310</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>95456</v>
+        <v>96069</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>139078</v>
+        <v>137636</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08867558728516356</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07340767956836367</v>
+        <v>0.07387882249468467</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1069536321196091</v>
+        <v>0.1058448026302245</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>217</v>
@@ -857,19 +857,19 @@
         <v>220329</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>193005</v>
+        <v>194377</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>250427</v>
+        <v>250523</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09474705040486707</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08299697921801971</v>
+        <v>0.0835870870839117</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1076896388006184</v>
+        <v>0.1077311242478585</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>20156</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12765</v>
+        <v>12918</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30589</v>
+        <v>30513</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01966233208772706</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01245302477654335</v>
+        <v>0.01260196508984215</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02984026478466472</v>
+        <v>0.02976643673464431</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -907,19 +907,19 @@
         <v>26365</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17360</v>
+        <v>17008</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37030</v>
+        <v>36893</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0202752633241657</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01335032320403014</v>
+        <v>0.01307929190118518</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02847685180252722</v>
+        <v>0.02837139331536034</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>48</v>
@@ -928,19 +928,19 @@
         <v>46521</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34683</v>
+        <v>35067</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>62312</v>
+        <v>61717</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02000507501741622</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01491474238671025</v>
+        <v>0.01507957473033785</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02679586163274228</v>
+        <v>0.02653969066707977</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>1510883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1485527</v>
+        <v>1484819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1534488</v>
+        <v>1533925</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.902290537658351</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8871479681530061</v>
+        <v>0.8867255667742719</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9163873408812321</v>
+        <v>0.9160513460106211</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1386</v>
@@ -1053,19 +1053,19 @@
         <v>1407620</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1380866</v>
+        <v>1380213</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1431870</v>
+        <v>1433428</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8937536166890825</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8767665260634342</v>
+        <v>0.8763518219122265</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9091508923080256</v>
+        <v>0.9101401194060145</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2854</v>
@@ -1074,19 +1074,19 @@
         <v>2918503</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2886458</v>
+        <v>2879202</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2955355</v>
+        <v>2948929</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8981528374250404</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8882911227587125</v>
+        <v>0.8860583488467166</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9094938897904018</v>
+        <v>0.9075162606855525</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>142256</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>120598</v>
+        <v>121049</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>167118</v>
+        <v>166926</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08495427724877432</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07202069529068572</v>
+        <v>0.07228965461845603</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09980174669961109</v>
+        <v>0.09968751608976328</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>118</v>
@@ -1124,19 +1124,19 @@
         <v>127182</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>106851</v>
+        <v>105064</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>151445</v>
+        <v>150468</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08075299513684789</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06784380351059496</v>
+        <v>0.06670942672566184</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09615814664921817</v>
+        <v>0.09553829449479538</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>258</v>
@@ -1145,19 +1145,19 @@
         <v>269438</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>236311</v>
+        <v>239912</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>300382</v>
+        <v>303257</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08291798734550593</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0727232978782142</v>
+        <v>0.07383144640394818</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09244091846991782</v>
+        <v>0.09332563476837717</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>21359</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13622</v>
+        <v>13278</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32698</v>
+        <v>30898</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01275518509287472</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008135187349224597</v>
+        <v>0.007929784440698173</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01952678122867477</v>
+        <v>0.01845190821163509</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -1195,19 +1195,19 @@
         <v>40151</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29557</v>
+        <v>28416</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54797</v>
+        <v>55842</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0254933881740696</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0187670444621117</v>
+        <v>0.01804215861575801</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03479285942895884</v>
+        <v>0.0354565279925906</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -1216,19 +1216,19 @@
         <v>61509</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46991</v>
+        <v>47013</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78039</v>
+        <v>80367</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01892917522945369</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01446119853126198</v>
+        <v>0.01446795270334203</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02401615800970568</v>
+        <v>0.02473239803193738</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>485232</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>466693</v>
+        <v>467682</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>499413</v>
+        <v>499001</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8912125286825197</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8571615227879041</v>
+        <v>0.8589791018412214</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9172584704133979</v>
+        <v>0.9165010804556497</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>401</v>
@@ -1341,19 +1341,19 @@
         <v>420327</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>406019</v>
+        <v>405509</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>432178</v>
+        <v>433133</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8924986644876788</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8621191160949705</v>
+        <v>0.861035369401596</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9176635553763178</v>
+        <v>0.919691638748538</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>868</v>
@@ -1362,19 +1362,19 @@
         <v>905559</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>883525</v>
+        <v>885088</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>924021</v>
+        <v>925082</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8918090431106378</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8701096570904918</v>
+        <v>0.8716488991837535</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9099909134369963</v>
+        <v>0.9110358216863649</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>42477</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29726</v>
+        <v>30131</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58216</v>
+        <v>59763</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0780170178753125</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05459711619280253</v>
+        <v>0.05534072066257158</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1069242298474743</v>
+        <v>0.1097643155500404</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -1412,19 +1412,19 @@
         <v>44502</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32545</v>
+        <v>33067</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57400</v>
+        <v>59455</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09449383639311727</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06910356742974894</v>
+        <v>0.07021294296242578</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1218801891157989</v>
+        <v>0.1262442377803601</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -1433,19 +1433,19 @@
         <v>86980</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>68853</v>
+        <v>68833</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107743</v>
+        <v>107157</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08565902576897941</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06780710082767487</v>
+        <v>0.06778821818718302</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1061070410563228</v>
+        <v>0.1055303291430778</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>16753</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9888</v>
+        <v>10118</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27815</v>
+        <v>28080</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03077045344216781</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01816063858631125</v>
+        <v>0.01858289038184369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05108790547596279</v>
+        <v>0.0515735056256405</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1483,19 +1483,19 @@
         <v>6126</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2851</v>
+        <v>2052</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13308</v>
+        <v>12981</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01300749911920395</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006052822098941596</v>
+        <v>0.004357286502934029</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0282577227615804</v>
+        <v>0.02756311979051414</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -1504,19 +1504,19 @@
         <v>22879</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15123</v>
+        <v>14166</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35406</v>
+        <v>35266</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02253193112038284</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0148934137375983</v>
+        <v>0.01395122211747456</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03486848878072981</v>
+        <v>0.03473057988317906</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>2896029</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2860923</v>
+        <v>2861688</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2933412</v>
+        <v>2931492</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8927205353075325</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8818988972245514</v>
+        <v>0.882134563990203</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9042439148875759</v>
+        <v>0.9036520573782991</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2926</v>
@@ -1629,19 +1629,19 @@
         <v>2986630</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2947626</v>
+        <v>2952177</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3023100</v>
+        <v>3022479</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8925260382570467</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8808699864089238</v>
+        <v>0.882229925943687</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9034247511243366</v>
+        <v>0.9032390170037156</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5766</v>
@@ -1650,19 +1650,19 @@
         <v>5882660</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5828389</v>
+        <v>5827803</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5928242</v>
+        <v>5931475</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8926217784256887</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8843868527418339</v>
+        <v>0.8842979786991886</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8995383769771796</v>
+        <v>0.9000289439233781</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>289752</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>255950</v>
+        <v>257621</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>323992</v>
+        <v>324452</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08931810231787411</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07889837927835724</v>
+        <v>0.07941335722941301</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09987268086662542</v>
+        <v>0.1000145516864994</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>269</v>
@@ -1700,19 +1700,19 @@
         <v>286995</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>252965</v>
+        <v>256129</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>321798</v>
+        <v>320493</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08576560456119783</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07559603760206487</v>
+        <v>0.07654175889514513</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09616618843605959</v>
+        <v>0.09577635561876474</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>553</v>
@@ -1721,19 +1721,19 @@
         <v>576747</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>532179</v>
+        <v>533167</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>627793</v>
+        <v>627043</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08751430323541999</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08075168667542638</v>
+        <v>0.0809015457815819</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09525989618372552</v>
+        <v>0.09514608373636463</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>58268</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>44372</v>
+        <v>45139</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>73235</v>
+        <v>76053</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01796136237459342</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01367799675572511</v>
+        <v>0.01391454232605249</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02257517186340422</v>
+        <v>0.02344400323818696</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -1771,19 +1771,19 @@
         <v>72642</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>56724</v>
+        <v>56290</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>91412</v>
+        <v>91139</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02170835718175549</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0169515561622651</v>
+        <v>0.01682163841635102</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02731762226042642</v>
+        <v>0.02723597245219675</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>128</v>
@@ -1792,19 +1792,19 @@
         <v>130909</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>110182</v>
+        <v>108762</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>153615</v>
+        <v>156664</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01986391833889131</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01671876500307976</v>
+        <v>0.01650327803805001</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02330924281434639</v>
+        <v>0.02377181512727963</v>
       </c>
     </row>
     <row r="19">
@@ -2135,19 +2135,19 @@
         <v>903075</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>885700</v>
+        <v>885070</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>917666</v>
+        <v>917624</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9308161095258225</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9129073293092809</v>
+        <v>0.9122584917816748</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9458555769387524</v>
+        <v>0.9458119111549202</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1134</v>
@@ -2156,19 +2156,19 @@
         <v>1219708</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1197045</v>
+        <v>1198018</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1239033</v>
+        <v>1239522</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9180252210963088</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9009677458186389</v>
+        <v>0.9017001856864347</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9325705096144338</v>
+        <v>0.9329388052143488</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1976</v>
@@ -2177,19 +2177,19 @@
         <v>2122783</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2096324</v>
+        <v>2094570</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2149889</v>
+        <v>2150058</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9234235085449952</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9119137718493365</v>
+        <v>0.9111509996376882</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9352148431277375</v>
+        <v>0.9352883112127167</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>48046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34914</v>
+        <v>35194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63616</v>
+        <v>65057</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04952233198289155</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0359861020486018</v>
+        <v>0.03627561712455122</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06557021561654622</v>
+        <v>0.06705504836661151</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>87</v>
@@ -2227,19 +2227,19 @@
         <v>90968</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72401</v>
+        <v>74240</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>110080</v>
+        <v>109680</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06846799697490087</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05449357309838943</v>
+        <v>0.05587784314182997</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08285281307641869</v>
+        <v>0.08255150983232465</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>130</v>
@@ -2248,19 +2248,19 @@
         <v>139014</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>116608</v>
+        <v>117435</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>164243</v>
+        <v>165083</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06047213757099939</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05072539660637536</v>
+        <v>0.05108481132875934</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07144660047956829</v>
+        <v>0.07181198228839653</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>19076</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12017</v>
+        <v>12128</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29183</v>
+        <v>28182</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01966155849128597</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01238603773304147</v>
+        <v>0.01250060408996928</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03007894466852811</v>
+        <v>0.02904794927364959</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -2298,19 +2298,19 @@
         <v>17945</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10596</v>
+        <v>11006</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28531</v>
+        <v>29639</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01350678192879036</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007975494490096879</v>
+        <v>0.008283857012487048</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02147449389667827</v>
+        <v>0.02230829181243848</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -2319,19 +2319,19 @@
         <v>37021</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26269</v>
+        <v>26520</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50530</v>
+        <v>51521</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01610435388400541</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01142722209323454</v>
+        <v>0.01153620498941934</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02198065378343124</v>
+        <v>0.02241195228718035</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2423,19 @@
         <v>1758103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1728808</v>
+        <v>1728841</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1782139</v>
+        <v>1782622</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9035222566891324</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8884672785376613</v>
+        <v>0.8884841913124535</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9158750762042021</v>
+        <v>0.9161234284073907</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1475</v>
@@ -2444,19 +2444,19 @@
         <v>1584524</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1559469</v>
+        <v>1556478</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1611433</v>
+        <v>1607772</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9112751695849822</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8968656181148947</v>
+        <v>0.8951452250885532</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9267504296951898</v>
+        <v>0.924644943209048</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3143</v>
@@ -2465,19 +2465,19 @@
         <v>3342627</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3299604</v>
+        <v>3305658</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3379510</v>
+        <v>3378481</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9071809024542056</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8955044734549917</v>
+        <v>0.8971475275932873</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9171909159595669</v>
+        <v>0.9169116580439219</v>
       </c>
     </row>
     <row r="9">
@@ -2494,19 +2494,19 @@
         <v>148465</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>125509</v>
+        <v>126719</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>174966</v>
+        <v>172423</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07629897027876335</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06450124452138661</v>
+        <v>0.06512329328711068</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08991809418234949</v>
+        <v>0.08861125691471736</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>113</v>
@@ -2515,19 +2515,19 @@
         <v>122649</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>99892</v>
+        <v>100411</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>145571</v>
+        <v>149061</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07053665163665707</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05744898967691803</v>
+        <v>0.05774729066265194</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08371937837805715</v>
+        <v>0.08572622532277113</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>252</v>
@@ -2536,19 +2536,19 @@
         <v>271114</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>240599</v>
+        <v>239971</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>311699</v>
+        <v>302751</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07357969779625816</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06529788090209532</v>
+        <v>0.06512759914109847</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08459424372334669</v>
+        <v>0.08216584997265466</v>
       </c>
     </row>
     <row r="10">
@@ -2565,19 +2565,19 @@
         <v>39265</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27654</v>
+        <v>27167</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54973</v>
+        <v>54350</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02017877303210415</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0142116696532639</v>
+        <v>0.0139616915560346</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02825175503479084</v>
+        <v>0.02793153127461443</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -2586,19 +2586,19 @@
         <v>31626</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21351</v>
+        <v>20861</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45875</v>
+        <v>45368</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01818817877836073</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01227941085460406</v>
+        <v>0.01199719541945693</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02638286962806991</v>
+        <v>0.02609153036276499</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -2607,19 +2607,19 @@
         <v>70890</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53583</v>
+        <v>55120</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90071</v>
+        <v>92040</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01923939974953628</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0145422813079133</v>
+        <v>0.01495933334074404</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02444504075093091</v>
+        <v>0.02497954216578058</v>
       </c>
     </row>
     <row r="11">
@@ -2711,19 +2711,19 @@
         <v>434282</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>417911</v>
+        <v>418516</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>446390</v>
+        <v>446023</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9102200489452204</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8759075490402386</v>
+        <v>0.8771751849313993</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9355963056600162</v>
+        <v>0.934826777605581</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>369</v>
@@ -2732,19 +2732,19 @@
         <v>411522</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>395182</v>
+        <v>398608</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>421953</v>
+        <v>422768</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9106148206276304</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.874457706019483</v>
+        <v>0.8820380326165272</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9336958995903373</v>
+        <v>0.9354998558649245</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>767</v>
@@ -2753,19 +2753,19 @@
         <v>845805</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>825051</v>
+        <v>824894</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>863003</v>
+        <v>862945</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9104120805420987</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8880733152603284</v>
+        <v>0.8879038922159402</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9289236262253793</v>
+        <v>0.9288620621527492</v>
       </c>
     </row>
     <row r="13">
@@ -2782,19 +2782,19 @@
         <v>31353</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20704</v>
+        <v>21181</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45397</v>
+        <v>46429</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06571383257797951</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04339428813214795</v>
+        <v>0.04439278466703777</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09514828568694074</v>
+        <v>0.09731142822712781</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -2803,19 +2803,19 @@
         <v>29079</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19764</v>
+        <v>19259</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42355</v>
+        <v>40479</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06434482313213286</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04373329759600791</v>
+        <v>0.04261674788373524</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09372276022619733</v>
+        <v>0.08957273237104693</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -2824,19 +2824,19 @@
         <v>60432</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45995</v>
+        <v>45700</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>78678</v>
+        <v>78305</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06504789557757847</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0495083906560261</v>
+        <v>0.0491908139406142</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08468738046820924</v>
+        <v>0.08428648714271689</v>
       </c>
     </row>
     <row r="14">
@@ -2853,19 +2853,19 @@
         <v>11482</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5751</v>
+        <v>6144</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21052</v>
+        <v>21796</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02406611847680011</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01205384562939035</v>
+        <v>0.01287826653580757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04412386356508044</v>
+        <v>0.04568246066312635</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -2874,19 +2874,19 @@
         <v>11316</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5786</v>
+        <v>6429</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19732</v>
+        <v>22162</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0250403562402367</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01280401117722749</v>
+        <v>0.01422683837370424</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04366183633624377</v>
+        <v>0.0490407369676842</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -2895,19 +2895,19 @@
         <v>22799</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14126</v>
+        <v>14309</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34256</v>
+        <v>34573</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02454002388032284</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01520460837488968</v>
+        <v>0.01540185884849313</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03687222794013514</v>
+        <v>0.03721387959450063</v>
       </c>
     </row>
     <row r="15">
@@ -2999,19 +2999,19 @@
         <v>3095459</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3060082</v>
+        <v>3060885</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3125320</v>
+        <v>3128874</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9122681350115744</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9018420418636618</v>
+        <v>0.9020787759805549</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9210684912533971</v>
+        <v>0.9221158125958887</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2978</v>
@@ -3020,19 +3020,19 @@
         <v>3215754</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3177314</v>
+        <v>3182140</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3249878</v>
+        <v>3246591</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9137386552180913</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9028160862339857</v>
+        <v>0.9041872970037363</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.923434669587529</v>
+        <v>0.9225008281956905</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5886</v>
@@ -3041,19 +3041,19 @@
         <v>6311214</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6263771</v>
+        <v>6260785</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6359810</v>
+        <v>6359728</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9130168176702952</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9061533631817659</v>
+        <v>0.9057213933777388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9200470299042984</v>
+        <v>0.9200350513839498</v>
       </c>
     </row>
     <row r="17">
@@ -3070,19 +3070,19 @@
         <v>227865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200263</v>
+        <v>201353</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>260767</v>
+        <v>260499</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06715436997636363</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05901992659431912</v>
+        <v>0.05934112777488203</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07685117890918346</v>
+        <v>0.07677212474295123</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>227</v>
@@ -3091,19 +3091,19 @@
         <v>242696</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>214031</v>
+        <v>212306</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>276158</v>
+        <v>271679</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06896060183925036</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06081558176510311</v>
+        <v>0.06032546593670871</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07846868300851974</v>
+        <v>0.0771960687517701</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>437</v>
@@ -3112,19 +3112,19 @@
         <v>470560</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>431629</v>
+        <v>426463</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>515099</v>
+        <v>518307</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06807397275868465</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06244200906660885</v>
+        <v>0.06169459148295765</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07451721554566888</v>
+        <v>0.0749812695816158</v>
       </c>
     </row>
     <row r="18">
@@ -3141,19 +3141,19 @@
         <v>69822</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>54171</v>
+        <v>53982</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>88727</v>
+        <v>88746</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02057749501206189</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01596487708419341</v>
+        <v>0.01590923673239319</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02614894066748779</v>
+        <v>0.02615458268814379</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>57</v>
@@ -3162,19 +3162,19 @@
         <v>60887</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46140</v>
+        <v>46545</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>78425</v>
+        <v>77300</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01730074294265837</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01311038391655793</v>
+        <v>0.01322543831985704</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0222841642343806</v>
+        <v>0.02196429727443703</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>120</v>
@@ -3183,19 +3183,19 @@
         <v>130710</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>106382</v>
+        <v>107942</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>156053</v>
+        <v>156382</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01890920957102015</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01538978134615716</v>
+        <v>0.0156155302732441</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02257551051756281</v>
+        <v>0.02262306833671489</v>
       </c>
     </row>
     <row r="19">
@@ -3526,19 +3526,19 @@
         <v>661400</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>643559</v>
+        <v>641518</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>677069</v>
+        <v>677158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8852958669257586</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8614152374576047</v>
+        <v>0.8586838868825809</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9062686368738848</v>
+        <v>0.9063878399086746</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>785</v>
@@ -3547,19 +3547,19 @@
         <v>876740</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>854315</v>
+        <v>856078</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>895181</v>
+        <v>895615</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.891270727940349</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.868473540988935</v>
+        <v>0.8702656042828254</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9100167600502356</v>
+        <v>0.9104581012170074</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1454</v>
@@ -3568,19 +3568,19 @@
         <v>1538140</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1510654</v>
+        <v>1511173</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1562813</v>
+        <v>1565242</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8886916841603216</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8728110879284368</v>
+        <v>0.8731112510582766</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9029475365596391</v>
+        <v>0.9043507162725956</v>
       </c>
     </row>
     <row r="5">
@@ -3597,19 +3597,19 @@
         <v>59050</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45003</v>
+        <v>45902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74160</v>
+        <v>74713</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07903908649200195</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06023703431576845</v>
+        <v>0.06144122220990429</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09926401267673921</v>
+        <v>0.1000044887574855</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -3618,19 +3618,19 @@
         <v>71967</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56442</v>
+        <v>54392</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>90469</v>
+        <v>89846</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07316002859754497</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05737707073350743</v>
+        <v>0.05529315494587438</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09196804474780254</v>
+        <v>0.09133471156838691</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>125</v>
@@ -3639,19 +3639,19 @@
         <v>131017</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>110515</v>
+        <v>110787</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>156999</v>
+        <v>155939</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07569771904056857</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06385258825115928</v>
+        <v>0.06400962347127367</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09070958578735969</v>
+        <v>0.09009679049264907</v>
       </c>
     </row>
     <row r="6">
@@ -3668,19 +3668,19 @@
         <v>26645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17452</v>
+        <v>17492</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39088</v>
+        <v>38948</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03566504658223945</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02335942559424833</v>
+        <v>0.02341345112947527</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05231962484430443</v>
+        <v>0.05213306567640866</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -3689,19 +3689,19 @@
         <v>34989</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24668</v>
+        <v>24601</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48737</v>
+        <v>48084</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03556924346210601</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0250769870849426</v>
+        <v>0.02500841207270108</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04954443853671719</v>
+        <v>0.04888124465036303</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>58</v>
@@ -3710,19 +3710,19 @@
         <v>61635</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>47986</v>
+        <v>46384</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78774</v>
+        <v>78803</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03561059679910984</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02772498188596391</v>
+        <v>0.02679916886048394</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04551353242322188</v>
+        <v>0.04553015578537318</v>
       </c>
     </row>
     <row r="7">
@@ -3814,19 +3814,19 @@
         <v>1826414</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1794999</v>
+        <v>1796799</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1856648</v>
+        <v>1858434</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8855313070693257</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8702998762513208</v>
+        <v>0.8711726242638709</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.900190431230658</v>
+        <v>0.9010563494646343</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1683</v>
@@ -3835,19 +3835,19 @@
         <v>1750335</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1718389</v>
+        <v>1724297</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1778644</v>
+        <v>1778530</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8871405520758546</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8709489568822533</v>
+        <v>0.8739434637497638</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9014887110319543</v>
+        <v>0.9014306295405219</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3408</v>
@@ -3856,19 +3856,19 @@
         <v>3576749</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3538247</v>
+        <v>3531709</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3619625</v>
+        <v>3614602</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8863180850245539</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8767773133396453</v>
+        <v>0.8751572596107621</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8969428420844037</v>
+        <v>0.8956981051122443</v>
       </c>
     </row>
     <row r="9">
@@ -3885,19 +3885,19 @@
         <v>177823</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>149623</v>
+        <v>153202</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>204002</v>
+        <v>207442</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08621702808037197</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07254437486685507</v>
+        <v>0.07427951734804922</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09890969738095991</v>
+        <v>0.1005776728572936</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>156</v>
@@ -3906,19 +3906,19 @@
         <v>164785</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>142123</v>
+        <v>141083</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>191323</v>
+        <v>190649</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08351970139094024</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07203373600518602</v>
+        <v>0.07150636937542422</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09697011775929322</v>
+        <v>0.09662866592760229</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>318</v>
@@ -3927,19 +3927,19 @@
         <v>342608</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>309545</v>
+        <v>308588</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>378711</v>
+        <v>380106</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08489827477140806</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07670529617014488</v>
+        <v>0.07646816215061165</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09384457642911948</v>
+        <v>0.09419012051786099</v>
       </c>
     </row>
     <row r="10">
@@ -3956,19 +3956,19 @@
         <v>58269</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44081</v>
+        <v>44119</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75921</v>
+        <v>77655</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02825166485030234</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02137246687497427</v>
+        <v>0.02139101338742779</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03680996010615938</v>
+        <v>0.03765089415181622</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -3977,19 +3977,19 @@
         <v>57888</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43059</v>
+        <v>44668</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75091</v>
+        <v>75131</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02933974653320514</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02182413358655005</v>
+        <v>0.02263950274257781</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03805895694709329</v>
+        <v>0.03807955365634563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>108</v>
@@ -3998,19 +3998,19 @@
         <v>116157</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>97851</v>
+        <v>95541</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144605</v>
+        <v>140261</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.028783640204038</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02424738068475322</v>
+        <v>0.02367495286807678</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03583304734226946</v>
+        <v>0.03475676951431983</v>
       </c>
     </row>
     <row r="11">
@@ -4102,19 +4102,19 @@
         <v>496947</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>482377</v>
+        <v>483550</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>507699</v>
+        <v>508562</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9233033863396499</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8962337405868471</v>
+        <v>0.8984134140963141</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.943280695998413</v>
+        <v>0.9448841232592771</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>475</v>
@@ -4123,19 +4123,19 @@
         <v>493873</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>478959</v>
+        <v>478013</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>505617</v>
+        <v>506591</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.909515282801872</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8820496122724212</v>
+        <v>0.8803081487933928</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.93114237995717</v>
+        <v>0.9329370530356915</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>931</v>
@@ -4144,19 +4144,19 @@
         <v>990820</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>968771</v>
+        <v>971335</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1009379</v>
+        <v>1009217</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.916378860924898</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8959866781030781</v>
+        <v>0.8983581412933842</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9335433454250047</v>
+        <v>0.9333940836143592</v>
       </c>
     </row>
     <row r="13">
@@ -4173,19 +4173,19 @@
         <v>31047</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21383</v>
+        <v>20734</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43807</v>
+        <v>44117</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05768379486547647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03972771006785485</v>
+        <v>0.03852313452028396</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08139045511691452</v>
+        <v>0.08196758434638053</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -4194,19 +4194,19 @@
         <v>34161</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24684</v>
+        <v>22738</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48231</v>
+        <v>47367</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06291066418429725</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04545863572955325</v>
+        <v>0.04187410307668276</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08882192292958548</v>
+        <v>0.08723141627667071</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -4215,19 +4215,19 @@
         <v>65208</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49013</v>
+        <v>49205</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83502</v>
+        <v>81375</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06030878164038682</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04533082576106496</v>
+        <v>0.04550798876830626</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07722873273251302</v>
+        <v>0.07526108704527433</v>
       </c>
     </row>
     <row r="14">
@@ -4244,19 +4244,19 @@
         <v>10233</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5150</v>
+        <v>5183</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19132</v>
+        <v>19727</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01901281879487355</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009568898453109858</v>
+        <v>0.00962983243287468</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03554630584426726</v>
+        <v>0.03665090427972777</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -4265,19 +4265,19 @@
         <v>14973</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8374</v>
+        <v>8190</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24233</v>
+        <v>24342</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02757405301383076</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01542102125680602</v>
+        <v>0.01508359125318681</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04462767865628285</v>
+        <v>0.04482832179190457</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -4286,19 +4286,19 @@
         <v>25206</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16016</v>
+        <v>16532</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37688</v>
+        <v>37921</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02331235743471517</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01481284642557969</v>
+        <v>0.01528966209809239</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03485650094318755</v>
+        <v>0.03507229661226727</v>
       </c>
     </row>
     <row r="15">
@@ -4390,19 +4390,19 @@
         <v>2984761</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2947075</v>
+        <v>2945348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3021322</v>
+        <v>3019944</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8915513495692806</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8802947679576905</v>
+        <v>0.8797788479551353</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9024721622405932</v>
+        <v>0.9020606623190925</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2943</v>
@@ -4411,19 +4411,19 @@
         <v>3120948</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3083587</v>
+        <v>3081751</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3159146</v>
+        <v>3155510</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.891773067188051</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8810975519079081</v>
+        <v>0.8805729568874849</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9026877594192912</v>
+        <v>0.9016486818343497</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5793</v>
@@ -4432,19 +4432,19 @@
         <v>6105709</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6046707</v>
+        <v>6054599</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6155002</v>
+        <v>6164029</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8916646673108861</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8830482403082457</v>
+        <v>0.8842006981608688</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8988634171507888</v>
+        <v>0.9001816999158524</v>
       </c>
     </row>
     <row r="17">
@@ -4461,19 +4461,19 @@
         <v>267920</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>238067</v>
+        <v>237972</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>299697</v>
+        <v>304290</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08002795110190498</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07111102241261946</v>
+        <v>0.07108236217590284</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08951986936467234</v>
+        <v>0.09089174030883543</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>253</v>
@@ -4482,19 +4482,19 @@
         <v>270913</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>238680</v>
+        <v>240029</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>301320</v>
+        <v>304589</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07741016409537073</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06819993570508089</v>
+        <v>0.06858527118847835</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08609851556882468</v>
+        <v>0.08703252172298576</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>503</v>
@@ -4503,19 +4503,19 @@
         <v>538833</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>496325</v>
+        <v>492972</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>589362</v>
+        <v>587186</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07869002535098889</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0724822190445287</v>
+        <v>0.07199263690199457</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08606916500483013</v>
+        <v>0.08575132186680945</v>
       </c>
     </row>
     <row r="18">
@@ -4532,19 +4532,19 @@
         <v>95148</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>76969</v>
+        <v>76181</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>117807</v>
+        <v>116716</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02842069932881441</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0229908595543236</v>
+        <v>0.02275547332139065</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03518918672832768</v>
+        <v>0.03486325870809175</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>101</v>
@@ -4553,19 +4553,19 @@
         <v>107850</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>88164</v>
+        <v>88483</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>132337</v>
+        <v>129899</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0308167687165782</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02519170477889233</v>
+        <v>0.02528289246843826</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03781361051242044</v>
+        <v>0.03711718695758259</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>189</v>
@@ -4574,19 +4574,19 @@
         <v>202997</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>176453</v>
+        <v>174869</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>234642</v>
+        <v>235081</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02964530733812497</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02576888878726359</v>
+        <v>0.02553753052343707</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03426668650836011</v>
+        <v>0.0343307243453314</v>
       </c>
     </row>
     <row r="19">
@@ -4917,19 +4917,19 @@
         <v>540045</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>526398</v>
+        <v>527729</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>550415</v>
+        <v>550614</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9390963039799051</v>
+        <v>0.9390963039799053</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9153647618406029</v>
+        <v>0.9176797075611277</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9571291960809707</v>
+        <v>0.957474357354409</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1350</v>
@@ -4938,19 +4938,19 @@
         <v>774303</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>762801</v>
+        <v>763575</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>783042</v>
+        <v>783009</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9499273919832925</v>
+        <v>0.9499273919832926</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9358167328439384</v>
+        <v>0.9367668003605496</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.960648982089414</v>
+        <v>0.9606076941535443</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2001</v>
@@ -4959,19 +4959,19 @@
         <v>1314349</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1299302</v>
+        <v>1298280</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1329690</v>
+        <v>1328908</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9454469715892558</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9346231783178032</v>
+        <v>0.9338878313409557</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9564820722887576</v>
+        <v>0.9559194613719705</v>
       </c>
     </row>
     <row r="5">
@@ -4988,19 +4988,19 @@
         <v>19554</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12324</v>
+        <v>12408</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30144</v>
+        <v>30115</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03400253044669047</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02143040158046958</v>
+        <v>0.02157690242257458</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05241840054727604</v>
+        <v>0.05236846788072961</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -5009,19 +5009,19 @@
         <v>30203</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22806</v>
+        <v>22405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40368</v>
+        <v>38379</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03705339594221001</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02797850487407513</v>
+        <v>0.02748637836007483</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04952447634587505</v>
+        <v>0.04708409082398277</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>71</v>
@@ -5030,19 +5030,19 @@
         <v>49757</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>38687</v>
+        <v>39026</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62178</v>
+        <v>61962</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03579136575823282</v>
+        <v>0.03579136575823281</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02782890503529962</v>
+        <v>0.02807242797444627</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04472604565904194</v>
+        <v>0.04457064656431913</v>
       </c>
     </row>
     <row r="6">
@@ -5059,19 +5059,19 @@
         <v>15470</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8911</v>
+        <v>8681</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24957</v>
+        <v>24549</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0269011655734043</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01549504815753241</v>
+        <v>0.01509517980470407</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04339869511582572</v>
+        <v>0.04268937953648363</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -5080,19 +5080,19 @@
         <v>10612</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6340</v>
+        <v>6491</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16402</v>
+        <v>16750</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0130192120744975</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007778259769899525</v>
+        <v>0.007962727472694206</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02012189896396503</v>
+        <v>0.02054940316363282</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>33</v>
@@ -5101,19 +5101,19 @@
         <v>26082</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17118</v>
+        <v>18270</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36691</v>
+        <v>37513</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01876166265251119</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01231340686396275</v>
+        <v>0.0131424060922828</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02639274109381407</v>
+        <v>0.02698403939104431</v>
       </c>
     </row>
     <row r="7">
@@ -5205,19 +5205,19 @@
         <v>2120845</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2094213</v>
+        <v>2092872</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2141412</v>
+        <v>2141686</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9512084986985331</v>
+        <v>0.9512084986985329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9392638406993227</v>
+        <v>0.9386627166941238</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.960432892598049</v>
+        <v>0.9605557090702844</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2774</v>
@@ -5226,19 +5226,19 @@
         <v>2055135</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2035622</v>
+        <v>2032423</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2074258</v>
+        <v>2074662</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9496493742800493</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9406323908815503</v>
+        <v>0.9391544623384871</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9584858457731673</v>
+        <v>0.9586723320170448</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4669</v>
@@ -5247,19 +5247,19 @@
         <v>4175980</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4144771</v>
+        <v>4143822</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4205285</v>
+        <v>4204514</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9504405637693073</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9433375338269584</v>
+        <v>0.9431215194543181</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9571103263090093</v>
+        <v>0.9569347214153945</v>
       </c>
     </row>
     <row r="9">
@@ -5276,19 +5276,19 @@
         <v>85958</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>68012</v>
+        <v>68294</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>110934</v>
+        <v>110250</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.03855267176458815</v>
+        <v>0.03855267176458816</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03050375805864367</v>
+        <v>0.03063033300037219</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04975430034946268</v>
+        <v>0.04944765234543564</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>109</v>
@@ -5297,19 +5297,19 @@
         <v>83220</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>66562</v>
+        <v>67369</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>100966</v>
+        <v>103862</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03845460393377589</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03075739712781972</v>
+        <v>0.0311301372438739</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04665515695043886</v>
+        <v>0.0479933601676638</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>188</v>
@@ -5318,19 +5318,19 @@
         <v>169178</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>144605</v>
+        <v>143805</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>199029</v>
+        <v>197710</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03850436919692817</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03291166941747982</v>
+        <v>0.03272969897279319</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04529834917207742</v>
+        <v>0.04499828526928738</v>
       </c>
     </row>
     <row r="10">
@@ -5347,19 +5347,19 @@
         <v>22829</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12893</v>
+        <v>13400</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36425</v>
+        <v>37136</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01023882953687887</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005782715241755868</v>
+        <v>0.006009799151784837</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01633674821927984</v>
+        <v>0.01665576579745436</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -5368,19 +5368,19 @@
         <v>25744</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16828</v>
+        <v>17640</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38083</v>
+        <v>39346</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01189602178617474</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007775959176873358</v>
+        <v>0.00815123040394773</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01759754707025814</v>
+        <v>0.01818127638966228</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -5389,19 +5389,19 @@
         <v>48573</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36436</v>
+        <v>35374</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67739</v>
+        <v>67562</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01105506703376454</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008292777997862554</v>
+        <v>0.008050984539363839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0154170947687319</v>
+        <v>0.01537691167407913</v>
       </c>
     </row>
     <row r="11">
@@ -5493,19 +5493,19 @@
         <v>672632</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>657289</v>
+        <v>657303</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>684215</v>
+        <v>685545</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9465344076135066</v>
+        <v>0.9465344076135065</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9249441385725353</v>
+        <v>0.9249639456776905</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9628337883054928</v>
+        <v>0.9647061672983798</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>957</v>
@@ -5514,19 +5514,19 @@
         <v>699300</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>688678</v>
+        <v>689114</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>707622</v>
+        <v>707990</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9587353133964116</v>
+        <v>0.9587353133964118</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9441726397052987</v>
+        <v>0.9447711424276395</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9701455701050975</v>
+        <v>0.9706500337096157</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1600</v>
@@ -5535,19 +5535,19 @@
         <v>1371932</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1357037</v>
+        <v>1355650</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1387134</v>
+        <v>1387155</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9527143872913406</v>
+        <v>0.9527143872913408</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9423708952380463</v>
+        <v>0.9414076154042434</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9632717728971033</v>
+        <v>0.96328633198931</v>
       </c>
     </row>
     <row r="13">
@@ -5564,19 +5564,19 @@
         <v>25848</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16542</v>
+        <v>16590</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38030</v>
+        <v>39302</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03637346670662057</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02327842679572154</v>
+        <v>0.02334569981038612</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05351680935659179</v>
+        <v>0.05530675353658628</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -5585,19 +5585,19 @@
         <v>24703</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17408</v>
+        <v>17147</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35098</v>
+        <v>35118</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03386733355222545</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02386622549594697</v>
+        <v>0.02350907599424487</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04811883241058443</v>
+        <v>0.04814640011971642</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -5606,19 +5606,19 @@
         <v>50551</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38131</v>
+        <v>37659</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65304</v>
+        <v>64285</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03510406489009246</v>
+        <v>0.03510406489009247</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02647948824362381</v>
+        <v>0.02615131495415947</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04534919344308614</v>
+        <v>0.04464179922214793</v>
       </c>
     </row>
     <row r="14">
@@ -5635,19 +5635,19 @@
         <v>12146</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6162</v>
+        <v>6244</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22833</v>
+        <v>22245</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01709212567987291</v>
+        <v>0.0170921256798729</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008670580897113936</v>
+        <v>0.008786456548593117</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03213043603941353</v>
+        <v>0.03130323233040674</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -5656,19 +5656,19 @@
         <v>5396</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2183</v>
+        <v>2163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10087</v>
+        <v>9875</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007397353051362833</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002993154725569361</v>
+        <v>0.002964933581425632</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0138289781598725</v>
+        <v>0.01353842441799965</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -5677,19 +5677,19 @@
         <v>17542</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10549</v>
+        <v>10606</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28445</v>
+        <v>28986</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01218154781856689</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007325635381694541</v>
+        <v>0.007364816758013297</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01975290297334491</v>
+        <v>0.02012888372559658</v>
       </c>
     </row>
     <row r="15">
@@ -5781,19 +5781,19 @@
         <v>3333522</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3300006</v>
+        <v>3298836</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3360058</v>
+        <v>3357407</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9482822049990639</v>
+        <v>0.9482822049990638</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.938747835624827</v>
+        <v>0.9384150334252319</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9558309108865342</v>
+        <v>0.9550767122406937</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5081</v>
@@ -5802,19 +5802,19 @@
         <v>3528739</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3504211</v>
+        <v>3500307</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3551279</v>
+        <v>3552590</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9514974724042538</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9448837848132998</v>
+        <v>0.9438310666449923</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.957575220824048</v>
+        <v>0.9579287907144903</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8270</v>
@@ -5823,19 +5823,19 @@
         <v>6862261</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6821206</v>
+        <v>6822121</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6896002</v>
+        <v>6903853</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9499328536096585</v>
+        <v>0.9499328536096588</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9442496365751719</v>
+        <v>0.9443763339612822</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9546035406359754</v>
+        <v>0.955690460229877</v>
       </c>
     </row>
     <row r="17">
@@ -5852,19 +5852,19 @@
         <v>131360</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108589</v>
+        <v>109872</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>158139</v>
+        <v>158732</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03736779045976253</v>
+        <v>0.03736779045976252</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03089008353442347</v>
+        <v>0.03125512332775961</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04498567563415688</v>
+        <v>0.04515431436847709</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>192</v>
@@ -5873,19 +5873,19 @@
         <v>138125</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>116889</v>
+        <v>117989</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>157683</v>
+        <v>163477</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03724442258165191</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03151836122042378</v>
+        <v>0.03181495404021391</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.042517934384061</v>
+        <v>0.04408029122070177</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>318</v>
@@ -5894,19 +5894,19 @@
         <v>269485</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>240961</v>
+        <v>238267</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>306149</v>
+        <v>304208</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.03730445606453722</v>
+        <v>0.03730445606453724</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03335584858542137</v>
+        <v>0.03298301312825191</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04237982823221425</v>
+        <v>0.042111113183237</v>
       </c>
     </row>
     <row r="18">
@@ -5923,19 +5923,19 @@
         <v>50445</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36413</v>
+        <v>35998</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70685</v>
+        <v>68492</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.01435000454117376</v>
+        <v>0.01435000454117375</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01035826558627311</v>
+        <v>0.01024041253094694</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02010761006645148</v>
+        <v>0.01948383724379884</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>56</v>
@@ -5944,19 +5944,19 @@
         <v>41752</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31534</v>
+        <v>31058</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>54294</v>
+        <v>55418</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01125810501409424</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008502877875140043</v>
+        <v>0.0083744898209048</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01463988932074647</v>
+        <v>0.01494306208141764</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>100</v>
@@ -5965,19 +5965,19 @@
         <v>92197</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>73848</v>
+        <v>73423</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>116134</v>
+        <v>113915</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01276269032580416</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01022269295695312</v>
+        <v>0.0101637709000943</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01607629459964402</v>
+        <v>0.01576915067034208</v>
       </c>
     </row>
     <row r="19">
